--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -411,10 +411,10 @@
     <t xml:space="preserve">SIGNAL ID_EX_SignImm        : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_EX_rd             : std_logic_vector(31 DOWNTO 0);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeur contenue dans le registre rd1</t>
+    <t xml:space="preserve">SIGNAL ID_EX_rd             : std_logic_vector(5 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registre rd de l’instruction</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_EX_rd2            : std_logic_vector(31 DOWNTO 0);</t>
@@ -481,7 +481,7 @@
     <t xml:space="preserve">ID,EX</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_WriteReg      : std_logic;</t>
+    <t xml:space="preserve">SIGNAL MEM_WB_WriteReg      : std_logic_vector(5 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">active l’écriture dans le banc de registre. (décalé par les étages du pipeline)</t>
@@ -1039,10 +1039,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1642,9 +1642,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>53</v>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>85</v>
@@ -1727,7 +1727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>22</v>
       </c>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>110</v>
@@ -1874,7 +1874,7 @@
         <v>111</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>28</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>133</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>137</v>
@@ -2241,6 +2241,8 @@
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="18"/>
     </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -1041,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>29</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>31</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>56</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>85</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>91</v>
@@ -1829,9 +1829,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>107</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>110</v>
@@ -2084,7 +2084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
         <v>32</v>
       </c>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="191">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -237,9 +237,6 @@
     <t xml:space="preserve">T'EX</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGNAL ID_AluSrc            : std_logic</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
     <t xml:space="preserve">Active le branchement</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIGNAL EX_cout              : std_logic;</t>
   </si>
   <si>
@@ -538,10 +538,58 @@
     <t xml:space="preserve">PC (9:2)</t>
   </si>
   <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instruction</t>
   </si>
   <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
     <t xml:space="preserve">addi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
   </si>
   <si>
     <t xml:space="preserve">IF_ID_Instruction</t>
@@ -1041,8 +1089,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1355,7 +1403,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>48</v>
@@ -1388,14 +1436,14 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>41</v>
@@ -1409,10 +1457,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>41</v>
@@ -1426,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>41</v>
@@ -1439,14 +1487,14 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
+      <c r="A24" s="5" t="n">
+        <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>41</v>
@@ -1460,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>41</v>
@@ -1477,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>41</v>
@@ -1494,10 +1542,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>41</v>
@@ -1511,10 +1559,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>41</v>
@@ -1528,10 +1576,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>41</v>
@@ -1545,16 +1593,16 @@
         <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,10 +1610,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>21</v>
@@ -1579,10 +1627,10 @@
         <v>63</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>21</v>
@@ -1596,16 +1644,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,10 +1661,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>21</v>
@@ -1630,10 +1678,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>41</v>
@@ -1644,13 +1692,13 @@
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>41</v>
@@ -1660,14 +1708,14 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>53</v>
+      <c r="A37" s="5" t="n">
+        <v>24</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>41</v>
@@ -1681,10 +1729,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>41</v>
@@ -1698,10 +1746,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>21</v>
@@ -1715,10 +1763,10 @@
         <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>21</v>
@@ -1732,16 +1780,16 @@
         <v>22</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,10 +1797,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>41</v>
@@ -1763,7 +1811,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>98</v>
@@ -1779,8 +1827,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>53</v>
+      <c r="A44" s="5" t="n">
+        <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>101</v>
@@ -1796,8 +1844,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>53</v>
+      <c r="A45" s="5" t="n">
+        <v>16</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>104</v>
@@ -1820,7 +1868,7 @@
         <v>106</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>41</v>
@@ -1916,7 +1964,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>116</v>
@@ -1950,7 +1998,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>121</v>
@@ -1967,7 +2015,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>122</v>
@@ -2024,13 +2072,13 @@
         <v>127</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +2089,7 @@
         <v>128</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>41</v>
@@ -2052,7 +2100,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>129</v>
@@ -2143,7 +2191,7 @@
         <v>139</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>21</v>
@@ -2171,7 +2219,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>142</v>
@@ -2269,8 +2317,8 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2399,460 +2447,938 @@
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="T5" s="23" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+        <v>170</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="S6" s="25" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="U6" s="26"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="N7" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="U7" s="26"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="26" t="n">
+        <v>5</v>
+      </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="N8" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="U8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="N9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="U9" s="26"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="R10" s="29" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="S10" s="29" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="B11" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="M11" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>177</v>
+      </c>
+      <c r="B12" s="26" t="n">
+        <v>6</v>
+      </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="M12" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="B13" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="26" t="n">
+        <v>8156</v>
+      </c>
+      <c r="I13" s="26" t="n">
+        <v>8156</v>
+      </c>
+      <c r="J13" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="M13" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>179</v>
+      </c>
+      <c r="B14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="M14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>180</v>
+      </c>
+      <c r="B15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="H15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="M15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>168</v>
+      </c>
       <c r="Q16" s="31" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="L17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="L18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
       <c r="P19" s="33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="U19" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="K20" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
@@ -2860,24 +3386,48 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="F21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="K21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
@@ -2885,7 +3435,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2910,7 +3460,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2935,12 +3485,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">PC (9:2)</t>
   </si>
   <si>
-    <t xml:space="preserve">f</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">e</t>
@@ -551,9 +551,6 @@
   </si>
   <si>
     <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">Instruction</t>
@@ -2318,7 +2315,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2447,35 +2444,35 @@
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="21" t="n">
-        <v>12</v>
+      <c r="B4" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>6</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>156</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L4" s="21" t="n">
         <v>9</v>
@@ -2510,135 +2507,135 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="Q5" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="23" t="s">
+      <c r="R5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="S5" s="23" t="s">
+      <c r="T5" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="T5" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="U5" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="P6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="O6" s="25" t="s">
+      <c r="R6" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="S6" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="T6" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="n">
@@ -2689,7 +2686,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="n">
@@ -2740,7 +2737,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="n">
@@ -2791,70 +2788,70 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="O10" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="29" t="s">
+      <c r="Q10" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="29" t="s">
+      <c r="R10" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="R10" s="29" t="s">
-        <v>169</v>
-      </c>
       <c r="S10" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="26" t="n">
         <v>3</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="26" t="n">
         <v>6</v>
@@ -2956,7 +2953,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>0</v>
@@ -3007,7 +3004,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="26" t="n">
         <v>0</v>
@@ -3058,7 +3055,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="26" t="n">
         <v>0</v>
@@ -3109,72 +3106,72 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="N16" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" s="31" t="s">
+      <c r="P16" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="31" t="s">
+      <c r="Q16" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="31" t="s">
-        <v>169</v>
-      </c>
       <c r="R16" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -3272,72 +3269,72 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="M19" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="33" t="s">
+      <c r="O19" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="M19" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="33" t="s">
+      <c r="P19" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="P19" s="33" t="s">
-        <v>169</v>
-      </c>
       <c r="Q19" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U19" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="n">
@@ -3386,7 +3383,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="n">
@@ -3435,7 +3432,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -3485,12 +3482,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">EX</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_rs                : std_logic_vector(6 DOWNTO 0);</t>
+    <t xml:space="preserve">SIGNAL ID_rs                : std_logic_vector(5 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">registre ra1 du banc de registres</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">signal qui contrôle l’alu à partir de alucon</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_PCBranch          : std_logic;</t>
+    <t xml:space="preserve">SIGNAL EX_PCBranch          : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">addresse de branchement</t>
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2314,7 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>127</v>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>18</v>
       </c>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Tableaux_DUBP_TAZR.xlsx
+++ b/Tableaux_DUBP_TAZR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="191">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t xml:space="preserve">ID_EX_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F</t>
   </si>
   <si>
     <t xml:space="preserve">ID_EX_ instruction</t>
@@ -1086,7 +1089,7 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -2314,8 +2317,8 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2578,10 +2581,10 @@
         <v>165</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>165</v>
@@ -2637,19 +2640,27 @@
       <c r="A7" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="26" t="n">
         <v>5</v>
       </c>
@@ -2659,8 +2670,12 @@
       <c r="K7" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" s="26" t="n">
         <v>7</v>
       </c>
@@ -2688,19 +2703,27 @@
       <c r="A8" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="26" t="n">
         <v>2</v>
       </c>
@@ -2710,8 +2733,12 @@
       <c r="K8" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="N8" s="26" t="n">
         <v>3</v>
       </c>
@@ -2735,34 +2762,46 @@
       </c>
       <c r="U8" s="26"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" s="26" t="n">
         <v>0</v>
       </c>
@@ -2788,11 +2827,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="29"/>
+        <v>174</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="C10" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>165</v>
@@ -2843,28 +2884,34 @@
         <v>164</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="26" t="n">
         <v>2</v>
       </c>
@@ -2874,8 +2921,12 @@
       <c r="J11" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M11" s="26" t="n">
         <v>3</v>
       </c>
@@ -2902,20 +2953,26 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E12" s="26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="H12" s="26" t="n">
         <v>2</v>
       </c>
@@ -2925,8 +2982,12 @@
       <c r="J12" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" s="26" t="n">
         <v>6</v>
       </c>
@@ -2953,20 +3014,26 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="26" t="n">
+        <v>8152</v>
+      </c>
       <c r="H13" s="26" t="n">
         <v>8156</v>
       </c>
@@ -2976,8 +3043,12 @@
       <c r="J13" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M13" s="26" t="n">
         <v>-1</v>
       </c>
@@ -3002,22 +3073,28 @@
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="H14" s="26" t="n">
         <v>0</v>
       </c>
@@ -3027,8 +3104,12 @@
       <c r="J14" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M14" s="26" t="n">
         <v>0</v>
       </c>
@@ -3053,24 +3134,30 @@
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="26" t="n">
         <v>0</v>
@@ -3078,8 +3165,12 @@
       <c r="J15" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="K15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M15" s="26" t="n">
         <v>0</v>
       </c>
@@ -3106,10 +3197,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>165</v>
@@ -3160,28 +3251,34 @@
         <v>164</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+        <v>182</v>
+      </c>
+      <c r="B17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="26" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="26" t="n">
         <v>2</v>
       </c>
@@ -3191,8 +3288,12 @@
       <c r="I17" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" s="26" t="n">
         <v>3</v>
       </c>
@@ -3220,9 +3321,11 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>183</v>
+      </c>
+      <c r="B18" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="n">
         <v>0</v>
@@ -3240,8 +3343,12 @@
       <c r="I18" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" s="26" t="n">
         <v>1</v>
       </c>
@@ -3269,7 +3376,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>165</v>
@@ -3320,30 +3427,34 @@
         <v>164</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U19" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>185</v>
+      </c>
+      <c r="B20" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C20" s="26" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" s="26" t="n">
         <v>2</v>
       </c>
@@ -3353,8 +3464,12 @@
       <c r="H20" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" s="26" t="n">
         <v>3</v>
       </c>
@@ -3383,16 +3498,20 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>186</v>
+      </c>
+      <c r="B21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" s="26" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" s="26" t="n">
         <v>1</v>
       </c>
@@ -3402,8 +3521,12 @@
       <c r="H21" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" s="26" t="n">
         <v>0</v>
       </c>
@@ -3432,7 +3555,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -3457,7 +3580,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -3482,12 +3605,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
